--- a/assets/Template/ReportSummaryTemplate.xlsx
+++ b/assets/Template/ReportSummaryTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masaki.kumamoto\OneDrive - UiPath\Documents\UiPath\00_DemoMaster\DocumentUnderstanding\DU_IntelligentFormExtractorPocPack\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uipath-my.sharepoint.com/personal/masaki_kumamoto_uipath_com/Documents/Documents/UiPath/04_Templates/DocumentUnderstandingEvaluationTemplate/assets/Template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A98244F-36E7-4328-96D0-49D510D06C4F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{9A98244F-36E7-4328-96D0-49D510D06C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{078FD7A7-26D3-4B08-8239-1A456AFB01A5}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="3840" windowWidth="24540" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="-18225" windowWidth="35205" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Boolean</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Set</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>TableColumn</t>
-  </si>
-  <si>
     <t>TableName</t>
   </si>
   <si>
@@ -109,18 +103,6 @@
   </si>
   <si>
     <t>Boolean_Correct</t>
-  </si>
-  <si>
-    <t>Table_Total</t>
-  </si>
-  <si>
-    <t>Table_Correct</t>
-  </si>
-  <si>
-    <t>TableColumn_Total</t>
-  </si>
-  <si>
-    <t>TableColumn_Correct</t>
   </si>
   <si>
     <t>Boolean_Accuracy</t>
@@ -241,9 +223,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BA47887-1DC2-4C1E-A991-123C33521E0E}" name="Summary" displayName="Summary" ref="B3:X4" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B3:X4" xr:uid="{68C54355-29D7-4510-83FA-1F76668AD06D}"/>
-  <tableColumns count="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0BA47887-1DC2-4C1E-A991-123C33521E0E}" name="Summary" displayName="Summary" ref="B3:T4" insertRow="1" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B3:T4" xr:uid="{68C54355-29D7-4510-83FA-1F76668AD06D}"/>
+  <tableColumns count="19">
     <tableColumn id="23" xr3:uid="{2C408C96-6B23-4C78-BC47-933334B2F065}" name="TableName" dataDxfId="0"/>
     <tableColumn id="1" xr3:uid="{706FAFF0-9E91-48B3-A99E-811797063C31}" name="FileName"/>
     <tableColumn id="2" xr3:uid="{9FFBE677-74F1-4E22-8878-D3AE0D1747CA}" name="Text_Total">
@@ -288,26 +270,14 @@
     <tableColumn id="15" xr3:uid="{8271A2F1-9465-4BAC-8BD3-80495497F262}" name="Boolean_Correct">
       <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),Q$2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{EC16E5E2-4E74-426B-985C-955982026341}" name="Table_Total">
-      <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),R$2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{57C2FCCE-E1EB-4B1D-A3BA-03864462A120}" name="Table_Correct">
-      <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),S$2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{FBCE24B7-AD40-49B1-BBD0-496D1E55802C}" name="TableColumn_Total">
-      <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),T$2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{93AD0FFD-3147-4AEC-BC24-295CDBEB67FE}" name="TableColumn_Correct">
-      <calculatedColumnFormula>COUNTIFS(INDIRECT(Summary[[#This Row],[TableName]] &amp; "[FieldType]"),U$2)</calculatedColumnFormula>
-    </tableColumn>
     <tableColumn id="20" xr3:uid="{8ABA970B-9CB7-4217-A94F-E6B6992AB9B5}" name="Boolean_Accuracy" dataCellStyle="Percent">
       <calculatedColumnFormula>Summary[[#This Row],[Boolean_Correct]]/Summary[[#This Row],[Boolean_Total]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="21" xr3:uid="{61454920-67DA-4DC7-929E-38195E842CC1}" name="Others_Accuracy" dataCellStyle="Percent">
-      <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],Summary[[#This Row],[Table_Correct]],Summary[[#This Row],[TableColumn_Correct]])/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],,Summary[[#This Row],[Table_Total]],Summary[[#This Row],[TableColumn_Total]],Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],#REF!,#REF!)/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],,#REF!,#REF!,Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="22" xr3:uid="{16E567A7-5192-4A31-BF09-F16B1B71AB49}" name="Total_Accuracy" dataCellStyle="Percent">
-      <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],Summary[[#This Row],[Boolean_Correct]],Summary[[#This Row],[Table_Correct]],Summary[[#This Row],[TableColumn_Correct]])/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],Summary[[#This Row],[Boolean_Total]],Summary[[#This Row],[Table_Total]],Summary[[#This Row],[TableColumn_Total]],Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Summary[[#This Row],[Text_Correct]],Summary[[#This Row],[Number_Correct]],Summary[[#This Row],[Date_Correct]],Summary[[#This Row],[Name_Correct]],Summary[[#This Row],[Address_Correct]],Summary[[#This Row],[Set_Correct]],Summary[[#This Row],[Boolean_Correct]],#REF!,#REF!)/SUM(Summary[[#This Row],[Text_Total]],Summary[[#This Row],[Number_Total]],Summary[[#This Row],[Date_Total]],Summary[[#This Row],[Name_Total]],Summary[[#This Row],[Address_Total]],Summary[[#This Row],[Set_Total]],Summary[[#This Row],[Boolean_Total]],#REF!,#REF!,Summary[[#This Row],[Boolean_Accuracy]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -577,9 +547,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE4FAD5-ED35-4E1A-94DC-5D6A193D9BD8}">
-  <dimension ref="B1:X4"/>
+  <dimension ref="B1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -600,15 +573,11 @@
     <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="18.42578125" style="4" customWidth="1"/>
+    <col min="18" max="20" width="18.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -651,95 +620,71 @@
       <c r="Q2" t="s">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="S2" t="s">
-        <v>8</v>
-      </c>
-      <c r="T2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="V4:X4">
+  <conditionalFormatting sqref="R4:T4">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="formula" val="0"/>
@@ -775,7 +720,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V4:X4</xm:sqref>
+          <xm:sqref>R4:T4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
